--- a/Experiment/Data/Observed results.xlsx
+++ b/Experiment/Data/Observed results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decadis-my.sharepoint.com/personal/s_sharma_decadis_onmicrosoft_com/Documents/Desktop/MSR/repro/MSR/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decadis-my.sharepoint.com/personal/s_sharma_decadis_onmicrosoft_com/Documents/Desktop/Sara test/MSR-assingment3/Experiment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{FBB5F126-4D40-431F-980D-6D8917813FF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{73A4157C-2C6D-4FD3-B2E6-52E8D91E2348}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test case count comparison " sheetId="1" r:id="rId1"/>
@@ -1099,23 +1099,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1130,6 +1115,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -1438,26 +1438,26 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="4"/>
     </row>
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="1">
@@ -1695,7 +1695,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1">
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0F273A-200D-49FD-91E4-3DB51DC9F7CC}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,312 +1911,312 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="25" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="25" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="25" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="16"/>
+      <c r="D10" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="25" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="25" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="25" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="16" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="25"/>
+      <c r="B26" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="25"/>
+      <c r="B29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="19" t="s">
         <v>85</v>
       </c>
     </row>
